--- a/关注学生名单.xlsx
+++ b/关注学生名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69493EDD-643F-479C-B717-3414AC8D7829}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5433E3B-E294-4ABE-800E-A09286E5A42C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>外出最长时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天12小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -372,6 +385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="5" width="16.88671875" customWidth="1"/>
@@ -394,6 +408,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>171250530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
